--- a/Document/8.2.ProjectTestCaseSprint2.xlsx
+++ b/Document/8.2.ProjectTestCaseSprint2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATN_Document\Document_DaSua\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD64D4AA-3F93-44FE-85F0-1E07E21F1062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061E82CF-C5A3-4E5C-95A4-64EAF4C8B668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="858" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1041,7 +1041,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1138,9 +1138,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -1199,6 +1196,30 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1220,29 +1241,14 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1262,31 +1268,34 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1295,24 +1304,24 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1322,16 +1331,19 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1522,7 +1534,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1757680</xdr:colOff>
+      <xdr:colOff>1757679</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>231</xdr:rowOff>
     </xdr:to>
@@ -2149,206 +2161,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="48"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="11.25" customHeight="1">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="48"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="45"/>
     </row>
     <row r="3" spans="1:5" ht="42.75" customHeight="1">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="48"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" ht="20.399999999999999">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="46" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.8">
-      <c r="A5" s="51">
+      <c r="A5" s="48">
         <v>1</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="49" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="11">
         <v>5</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="48" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.8">
-      <c r="A6" s="51">
+      <c r="A6" s="48">
         <v>2</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="49" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="11">
         <v>3</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="48" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.8">
-      <c r="A7" s="51">
+      <c r="A7" s="48">
         <v>3</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="49">
         <v>3</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="48" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.8">
-      <c r="A8" s="51">
+      <c r="A8" s="48">
         <v>4</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="49">
         <v>10</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="48" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.8">
-      <c r="A9" s="51">
+      <c r="A9" s="48">
         <v>5</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="49" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="11">
         <v>3</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="48" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.8">
-      <c r="A10" s="51">
+      <c r="A10" s="48">
         <v>6</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="49" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="11">
         <v>8</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="48" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.8">
-      <c r="A11" s="52">
+      <c r="A11" s="49">
         <v>7</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="49">
         <v>9</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="48" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.8">
-      <c r="A12" s="52">
+      <c r="A12" s="49">
         <v>8</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="52">
+      <c r="D12" s="49">
         <v>3</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="48" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.8">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54">
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51">
         <f>SUM(D5:D12)</f>
         <v>44</v>
       </c>
-      <c r="E13" s="53"/>
+      <c r="E13" s="50"/>
     </row>
     <row r="16" spans="1:5" ht="16.8">
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="53"/>
     </row>
     <row r="17" spans="2:5" ht="16.8">
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2388,28 +2400,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:6" ht="22.8">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="66"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="71"/>
     </row>
     <row r="3" spans="1:6" ht="18">
       <c r="A3" s="23"/>
@@ -2472,107 +2484,107 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="17.399999999999999">
-      <c r="A30" s="72" t="s">
+      <c r="A30" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="72" t="s">
+      <c r="D30" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="73" t="s">
+      <c r="E30" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="72" t="s">
+      <c r="F30" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="67" t="s">
+      <c r="G30" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="74" t="s">
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="64" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="17.399999999999999">
-      <c r="A31" s="72"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="67" t="s">
+      <c r="A31" s="62"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67" t="s">
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="75"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="65"/>
     </row>
     <row r="32" spans="1:13" ht="16.8">
-      <c r="A32" s="72"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="40" t="s">
+      <c r="A32" s="62"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="41" t="s">
+      <c r="H32" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="I32" s="40" t="s">
+      <c r="I32" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="J32" s="40" t="s">
+      <c r="J32" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K32" s="40" t="s">
+      <c r="K32" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="L32" s="40" t="s">
+      <c r="L32" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="M32" s="75"/>
+      <c r="M32" s="65"/>
     </row>
     <row r="33" spans="1:14" ht="16.8">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
     </row>
     <row r="34" spans="1:14" ht="33.6">
       <c r="A34" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="45"/>
+      <c r="C34" s="42"/>
       <c r="D34" s="3" t="s">
         <v>39</v>
       </c>
@@ -2600,16 +2612,16 @@
       <c r="L34" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="M34" s="46"/>
+      <c r="M34" s="43"/>
     </row>
     <row r="35" spans="1:14" ht="33.6">
       <c r="A35" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="45"/>
+      <c r="C35" s="42"/>
       <c r="D35" s="3" t="s">
         <v>39</v>
       </c>
@@ -2637,24 +2649,24 @@
       <c r="L35" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="M35" s="46"/>
+      <c r="M35" s="43"/>
     </row>
     <row r="36" spans="1:14" ht="16.8">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="70"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="71"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="61"/>
       <c r="N36" s="19"/>
     </row>
     <row r="37" spans="1:14" ht="79.05" customHeight="1">
@@ -2731,7 +2743,7 @@
       <c r="L38" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="M38" s="47"/>
+      <c r="M38" s="44"/>
     </row>
     <row r="39" spans="1:14" ht="67.2">
       <c r="A39" s="10" t="s">
@@ -2770,10 +2782,15 @@
       <c r="L39" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="M39" s="47"/>
+      <c r="M39" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
     <mergeCell ref="A33:M33"/>
     <mergeCell ref="A36:M36"/>
     <mergeCell ref="A30:A32"/>
@@ -2783,11 +2800,6 @@
     <mergeCell ref="E30:E32"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="M30:M32"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G34:G35 G37:G39 J34:J35 J37:J39" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -2828,7 +2840,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.8">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="54" t="s">
         <v>57</v>
       </c>
       <c r="B1" s="76" t="s">
@@ -2840,7 +2852,7 @@
       <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="16.8">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="54" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="79" t="s">
@@ -2912,107 +2924,107 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="17.399999999999999">
-      <c r="A41" s="72" t="s">
+      <c r="A41" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="72" t="s">
+      <c r="B41" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="72" t="s">
+      <c r="D41" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="73" t="s">
+      <c r="E41" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="72" t="s">
+      <c r="F41" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="67" t="s">
+      <c r="G41" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="67"/>
-      <c r="M41" s="74" t="s">
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="64" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="17.399999999999999">
-      <c r="A42" s="72"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="67" t="s">
+      <c r="A42" s="62"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67" t="s">
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="K42" s="67"/>
-      <c r="L42" s="67"/>
-      <c r="M42" s="75"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="65"/>
     </row>
     <row r="43" spans="1:13" ht="16.8">
-      <c r="A43" s="72"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="40" t="s">
+      <c r="A43" s="62"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="41" t="s">
+      <c r="H43" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="I43" s="40" t="s">
+      <c r="I43" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="J43" s="40" t="s">
+      <c r="J43" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K43" s="40" t="s">
+      <c r="K43" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="L43" s="40" t="s">
+      <c r="L43" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="M43" s="75"/>
+      <c r="M43" s="65"/>
     </row>
     <row r="44" spans="1:13" ht="16.8">
-      <c r="A44" s="68" t="s">
+      <c r="A44" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B44" s="68"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="68"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="68"/>
-      <c r="L44" s="68"/>
-      <c r="M44" s="68"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
     </row>
     <row r="45" spans="1:13" ht="33.6">
-      <c r="A45" s="43" t="s">
+      <c r="A45" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="43"/>
+      <c r="C45" s="40"/>
       <c r="D45" s="3" t="s">
         <v>39</v>
       </c>
@@ -3040,26 +3052,26 @@
       <c r="L45" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="M45" s="43" t="s">
+      <c r="M45" s="40" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="16.8">
-      <c r="A46" s="82" t="s">
+      <c r="A46" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="83"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="83"/>
-      <c r="J46" s="83"/>
-      <c r="K46" s="83"/>
-      <c r="L46" s="83"/>
-      <c r="M46" s="84"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="74"/>
+      <c r="L46" s="74"/>
+      <c r="M46" s="75"/>
     </row>
     <row r="47" spans="1:13" ht="100.05" customHeight="1">
       <c r="A47" s="10" t="s">
@@ -3139,6 +3151,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
     <mergeCell ref="A44:M44"/>
     <mergeCell ref="A46:M46"/>
     <mergeCell ref="A41:A43"/>
@@ -3148,11 +3165,6 @@
     <mergeCell ref="E41:E43"/>
     <mergeCell ref="F41:F43"/>
     <mergeCell ref="M41:M43"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G41:L41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G45 J45 G47:G48 J47:J48" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -3177,7 +3189,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="37.5546875" customWidth="1"/>
     <col min="3" max="3" width="33.88671875" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
@@ -3196,25 +3208,25 @@
       <c r="A1" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:6" ht="22.8">
       <c r="A2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="66"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="71"/>
     </row>
     <row r="3" spans="1:6" ht="18">
       <c r="A3" s="23"/>
@@ -3277,98 +3289,98 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="17.399999999999999">
-      <c r="A40" s="72" t="s">
+      <c r="A40" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="72" t="s">
+      <c r="B40" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="72" t="s">
+      <c r="C40" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="72" t="s">
+      <c r="D40" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="73" t="s">
+      <c r="E40" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="72" t="s">
+      <c r="F40" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="85" t="s">
+      <c r="G40" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="85"/>
-      <c r="L40" s="85"/>
-      <c r="M40" s="89" t="s">
+      <c r="H40" s="87"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="87"/>
+      <c r="K40" s="87"/>
+      <c r="L40" s="87"/>
+      <c r="M40" s="85" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="17.399999999999999">
-      <c r="A41" s="72"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="85" t="s">
+      <c r="A41" s="62"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85" t="s">
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="K41" s="85"/>
-      <c r="L41" s="85"/>
-      <c r="M41" s="90"/>
+      <c r="K41" s="87"/>
+      <c r="L41" s="87"/>
+      <c r="M41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="16.8">
-      <c r="A42" s="72"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="40" t="s">
+      <c r="A42" s="62"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="H42" s="41" t="s">
+      <c r="H42" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="I42" s="40" t="s">
+      <c r="I42" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="J42" s="40" t="s">
+      <c r="J42" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K42" s="40" t="s">
+      <c r="K42" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="L42" s="40" t="s">
+      <c r="L42" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="M42" s="90"/>
+      <c r="M42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="16.8">
-      <c r="A43" s="68" t="s">
+      <c r="A43" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="68"/>
-      <c r="M43" s="68"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="58"/>
     </row>
     <row r="44" spans="1:14" ht="33.6">
       <c r="A44" s="28" t="s">
@@ -3389,7 +3401,7 @@
       <c r="F44" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="G44" s="42" t="s">
+      <c r="G44" s="39" t="s">
         <v>41</v>
       </c>
       <c r="H44" s="12">
@@ -3412,21 +3424,21 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="16.8">
-      <c r="A45" s="87" t="s">
+      <c r="A45" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="87"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="87"/>
-      <c r="M45" s="87"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="83"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="83"/>
+      <c r="L45" s="83"/>
+      <c r="M45" s="83"/>
       <c r="N45" s="19"/>
     </row>
     <row r="46" spans="1:14" ht="94.05" customHeight="1">
@@ -3485,7 +3497,7 @@
       <c r="F47" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="G47" s="42" t="s">
+      <c r="G47" s="39" t="s">
         <v>41</v>
       </c>
       <c r="H47" s="12">
@@ -3507,6 +3519,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G40:L40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
     <mergeCell ref="A43:M43"/>
     <mergeCell ref="A45:M45"/>
     <mergeCell ref="A40:A42"/>
@@ -3516,11 +3533,6 @@
     <mergeCell ref="E40:E42"/>
     <mergeCell ref="F40:F42"/>
     <mergeCell ref="M40:M42"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G40:L40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G44 J44 G46:G47 J46:J47" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -3540,13 +3552,13 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="44.5546875" customWidth="1"/>
-    <col min="2" max="2" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
     <col min="3" max="3" width="27.21875" customWidth="1"/>
     <col min="4" max="4" width="36.88671875" customWidth="1"/>
     <col min="5" max="5" width="29.44140625" customWidth="1"/>
@@ -3564,27 +3576,27 @@
       <c r="A1" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="104"/>
     </row>
     <row r="2" spans="1:7" ht="22.8">
       <c r="A2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:7" ht="18">
       <c r="A3" s="23"/>
@@ -3594,10 +3606,10 @@
       <c r="C3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="91"/>
+      <c r="E3" s="92"/>
       <c r="F3" s="25" t="s">
         <v>20</v>
       </c>
@@ -3615,11 +3627,11 @@
       <c r="C4" s="23">
         <v>0</v>
       </c>
-      <c r="D4" s="92">
+      <c r="D4" s="93">
         <v>0</v>
       </c>
-      <c r="E4" s="92"/>
-      <c r="F4" s="39">
+      <c r="E4" s="93"/>
+      <c r="F4" s="36">
         <v>0</v>
       </c>
       <c r="G4" s="23">
@@ -3637,11 +3649,11 @@
       <c r="C5" s="23">
         <v>0</v>
       </c>
-      <c r="D5" s="92">
+      <c r="D5" s="93">
         <v>0</v>
       </c>
-      <c r="E5" s="92"/>
-      <c r="F5" s="39">
+      <c r="E5" s="93"/>
+      <c r="F5" s="36">
         <v>0</v>
       </c>
       <c r="G5" s="23">
@@ -3650,62 +3662,62 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="17.399999999999999">
-      <c r="A31" s="94" t="s">
+      <c r="A31" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="94" t="s">
+      <c r="C31" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="94" t="s">
+      <c r="D31" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="95" t="s">
+      <c r="E31" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="94" t="s">
+      <c r="F31" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="85" t="s">
+      <c r="G31" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="H31" s="85"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="85"/>
-      <c r="M31" s="89" t="s">
+      <c r="H31" s="87"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="85" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="17.399999999999999">
-      <c r="A32" s="94"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="85" t="s">
+      <c r="A32" s="89"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="H32" s="85"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="85" t="s">
+      <c r="H32" s="87"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="K32" s="85"/>
-      <c r="L32" s="85"/>
-      <c r="M32" s="96"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="87"/>
+      <c r="M32" s="91"/>
     </row>
     <row r="33" spans="1:13" ht="15.6">
-      <c r="A33" s="94"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="94"/>
+      <c r="A33" s="89"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="89"/>
       <c r="G33" s="7" t="s">
         <v>33</v>
       </c>
@@ -3724,24 +3736,24 @@
       <c r="L33" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M33" s="96"/>
+      <c r="M33" s="91"/>
     </row>
     <row r="34" spans="1:13" ht="15.6">
-      <c r="A34" s="93" t="s">
+      <c r="A34" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="93"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="93"/>
-      <c r="M34" s="93"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="88"/>
     </row>
     <row r="35" spans="1:13" ht="33.6">
       <c r="A35" s="28" t="s">
@@ -4151,7 +4163,13 @@
       <c r="M45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G31:L31"/>
     <mergeCell ref="G32:I32"/>
     <mergeCell ref="J32:L32"/>
     <mergeCell ref="A34:M34"/>
@@ -4162,11 +4180,6 @@
     <mergeCell ref="E31:E33"/>
     <mergeCell ref="F31:F33"/>
     <mergeCell ref="M31:M33"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G31:L31"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G35:G39 G41:G45 J35:J39 J41:J45" xr:uid="{00000000-0002-0000-0400-000000000000}">
@@ -4222,13 +4235,13 @@
       <c r="A2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
     </row>
     <row r="3" spans="1:6" ht="18">
       <c r="A3" s="23"/>
@@ -4291,62 +4304,62 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="17.399999999999999">
-      <c r="A41" s="94" t="s">
+      <c r="A41" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="94" t="s">
+      <c r="C41" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="94" t="s">
+      <c r="D41" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="95" t="s">
+      <c r="E41" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="94" t="s">
+      <c r="F41" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="85" t="s">
+      <c r="G41" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="85"/>
-      <c r="L41" s="85"/>
-      <c r="M41" s="89" t="s">
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="87"/>
+      <c r="K41" s="87"/>
+      <c r="L41" s="87"/>
+      <c r="M41" s="85" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="17.399999999999999">
-      <c r="A42" s="94"/>
-      <c r="B42" s="94"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="94"/>
-      <c r="G42" s="85" t="s">
+      <c r="A42" s="89"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85" t="s">
+      <c r="H42" s="87"/>
+      <c r="I42" s="87"/>
+      <c r="J42" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="K42" s="85"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="96"/>
+      <c r="K42" s="87"/>
+      <c r="L42" s="87"/>
+      <c r="M42" s="91"/>
     </row>
     <row r="43" spans="1:13" ht="15.6">
-      <c r="A43" s="94"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="94"/>
+      <c r="A43" s="89"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="89"/>
       <c r="G43" s="7" t="s">
         <v>33</v>
       </c>
@@ -4365,24 +4378,24 @@
       <c r="L43" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M43" s="96"/>
+      <c r="M43" s="91"/>
     </row>
     <row r="44" spans="1:13" ht="15.6">
-      <c r="A44" s="98" t="s">
+      <c r="A44" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="B44" s="98"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="98"/>
-      <c r="E44" s="98"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="98"/>
-      <c r="H44" s="98"/>
-      <c r="I44" s="98"/>
-      <c r="J44" s="98"/>
-      <c r="K44" s="98"/>
-      <c r="L44" s="98"/>
-      <c r="M44" s="98"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="95"/>
+      <c r="L44" s="95"/>
+      <c r="M44" s="95"/>
     </row>
     <row r="45" spans="1:13" ht="33.6">
       <c r="A45" s="9" t="s">
@@ -4517,21 +4530,21 @@
       <c r="M48" s="17"/>
     </row>
     <row r="49" spans="1:14" ht="16.8">
-      <c r="A49" s="87" t="s">
+      <c r="A49" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="B49" s="87"/>
-      <c r="C49" s="87"/>
-      <c r="D49" s="87"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
-      <c r="H49" s="87"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="87"/>
-      <c r="K49" s="87"/>
-      <c r="L49" s="87"/>
-      <c r="M49" s="87"/>
+      <c r="B49" s="83"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="83"/>
+      <c r="J49" s="83"/>
+      <c r="K49" s="83"/>
+      <c r="L49" s="83"/>
+      <c r="M49" s="83"/>
       <c r="N49" s="19"/>
     </row>
     <row r="50" spans="1:14" ht="91.95" customHeight="1">
@@ -4691,6 +4704,11 @@
     <row r="54" spans="1:14" ht="111" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="A44:M44"/>
     <mergeCell ref="A49:M49"/>
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="B41:B43"/>
@@ -4699,11 +4717,6 @@
     <mergeCell ref="E41:E43"/>
     <mergeCell ref="F41:F43"/>
     <mergeCell ref="M41:M43"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G41:L41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="A44:M44"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G45:G48 G50:G53 J45:J48 J50:J53" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -4723,6 +4736,960 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="5" max="6" width="30" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" customWidth="1"/>
+    <col min="12" max="12" width="16.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.8">
+      <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="105" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="107"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.8">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="100" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.8">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.8">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f>B4</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.8">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <f>B5</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="17.399999999999999">
+      <c r="A34" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="17.399999999999999">
+      <c r="A35" s="89"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="99"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.6">
+      <c r="A36" s="89"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M36" s="99"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.6">
+      <c r="A37" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="101"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="101"/>
+      <c r="J37" s="101"/>
+      <c r="K37" s="101"/>
+      <c r="L37" s="101"/>
+      <c r="M37" s="102"/>
+    </row>
+    <row r="38" spans="1:14" ht="33.6">
+      <c r="A38" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" s="12">
+        <v>45962</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K38" s="12">
+        <v>45965</v>
+      </c>
+      <c r="L38" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="M38" s="17"/>
+    </row>
+    <row r="39" spans="1:14" ht="16.8">
+      <c r="A39" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="97"/>
+      <c r="C39" s="97"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="97"/>
+      <c r="H39" s="97"/>
+      <c r="I39" s="97"/>
+      <c r="J39" s="97"/>
+      <c r="K39" s="97"/>
+      <c r="L39" s="97"/>
+      <c r="M39" s="98"/>
+      <c r="N39" s="19"/>
+    </row>
+    <row r="40" spans="1:14" ht="84">
+      <c r="A40" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" s="12">
+        <v>45962</v>
+      </c>
+      <c r="I40" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="J40" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K40" s="12">
+        <v>45965</v>
+      </c>
+      <c r="L40" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="M40" s="35"/>
+    </row>
+    <row r="41" spans="1:14" ht="100.8">
+      <c r="A41" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" s="12">
+        <v>45962</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L41" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="M41" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="A37:M37"/>
+    <mergeCell ref="A39:M39"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="M34:M36"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G38 J38 G40:G41 J40:J41" xr:uid="{00000000-0002-0000-0600-000000000000}">
+      <formula1>"Passed,Untested,Failed,Blocked"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:M53"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
+    <col min="4" max="4" width="38.77734375" customWidth="1"/>
+    <col min="5" max="5" width="40.33203125" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23.25" customHeight="1">
+      <c r="A1" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="104"/>
+    </row>
+    <row r="2" spans="1:6" ht="22.8">
+      <c r="A2" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+    </row>
+    <row r="3" spans="1:6" ht="18">
+      <c r="A3" s="23"/>
+      <c r="B3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18">
+      <c r="A4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="23">
+        <v>9</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0</v>
+      </c>
+      <c r="F4" s="23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18">
+      <c r="A5" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="27">
+        <v>4</v>
+      </c>
+      <c r="C5" s="27">
+        <v>0</v>
+      </c>
+      <c r="D5" s="27">
+        <v>0</v>
+      </c>
+      <c r="E5" s="27">
+        <v>0</v>
+      </c>
+      <c r="F5" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="17.399999999999999">
+      <c r="A40" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="87"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="87"/>
+      <c r="K40" s="87"/>
+      <c r="L40" s="87"/>
+      <c r="M40" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="17.399999999999999">
+      <c r="A41" s="89"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" s="87"/>
+      <c r="L41" s="87"/>
+      <c r="M41" s="64"/>
+    </row>
+    <row r="42" spans="1:13" ht="15.6">
+      <c r="A42" s="89"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M42" s="64"/>
+    </row>
+    <row r="43" spans="1:13" ht="15.6">
+      <c r="A43" s="88" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" s="88"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="88"/>
+      <c r="K43" s="88"/>
+      <c r="L43" s="88"/>
+      <c r="M43" s="88"/>
+    </row>
+    <row r="44" spans="1:13" ht="33.6">
+      <c r="A44" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" s="12">
+        <v>45962</v>
+      </c>
+      <c r="I44" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="J44" s="11"/>
+      <c r="K44" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="L44" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="M44" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="33.6">
+      <c r="A45" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" s="12">
+        <v>45962</v>
+      </c>
+      <c r="I45" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="J45" s="11"/>
+      <c r="K45" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="L45" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="M45" s="32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="33.6">
+      <c r="A46" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" s="12">
+        <v>45962</v>
+      </c>
+      <c r="I46" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="J46" s="11"/>
+      <c r="K46" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="L46" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="M46" s="32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="33.6">
+      <c r="A47" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H47" s="12">
+        <v>45962</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="J47" s="11"/>
+      <c r="K47" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="L47" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="M47" s="32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="33.6">
+      <c r="A48" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H48" s="12">
+        <v>45962</v>
+      </c>
+      <c r="I48" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="J48" s="11"/>
+      <c r="K48" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="L48" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="M48" s="32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="16.8">
+      <c r="A49" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" s="97"/>
+      <c r="C49" s="97"/>
+      <c r="D49" s="97"/>
+      <c r="E49" s="97"/>
+      <c r="F49" s="97"/>
+      <c r="G49" s="97"/>
+      <c r="H49" s="97"/>
+      <c r="I49" s="97"/>
+      <c r="J49" s="97"/>
+      <c r="K49" s="97"/>
+      <c r="L49" s="97"/>
+      <c r="M49" s="98"/>
+    </row>
+    <row r="50" spans="1:13" ht="171" customHeight="1">
+      <c r="A50" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H50" s="12">
+        <v>45962</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="J50" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K50" s="12">
+        <v>45965</v>
+      </c>
+      <c r="L50" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="M50" s="35"/>
+    </row>
+    <row r="51" spans="1:13" ht="184.8">
+      <c r="A51" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H51" s="12">
+        <v>45962</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K51" s="12">
+        <v>45965</v>
+      </c>
+      <c r="L51" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="M51" s="17"/>
+    </row>
+    <row r="52" spans="1:13" ht="184.8">
+      <c r="A52" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H52" s="12">
+        <v>45962</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K52" s="12">
+        <v>45965</v>
+      </c>
+      <c r="L52" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="M52" s="17"/>
+    </row>
+    <row r="53" spans="1:13" ht="168">
+      <c r="A53" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H53" s="12">
+        <v>45962</v>
+      </c>
+      <c r="I53" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K53" s="12">
+        <v>45965</v>
+      </c>
+      <c r="L53" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="M53" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G40:L40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="A43:M43"/>
+    <mergeCell ref="A49:M49"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="M40:M42"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G44:G48 G50:G53 J44:J48 J50:J53" xr:uid="{00000000-0002-0000-0700-000000000000}">
+      <formula1>"Passed,Untested,Failed,Blocked"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:N41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -4758,13 +5725,13 @@
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="99" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
+      <c r="B2" s="100" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
     </row>
     <row r="3" spans="1:6" ht="16.8">
       <c r="A3" s="4"/>
@@ -4827,62 +5794,62 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.399999999999999">
-      <c r="A34" s="94" t="s">
+      <c r="A34" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="94" t="s">
+      <c r="B34" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="94" t="s">
+      <c r="C34" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="94" t="s">
+      <c r="D34" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="95" t="s">
+      <c r="E34" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="94" t="s">
+      <c r="F34" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="67" t="s">
+      <c r="G34" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="74" t="s">
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="64" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="17.399999999999999">
-      <c r="A35" s="94"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="67" t="s">
+      <c r="A35" s="89"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67" t="s">
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="K35" s="67"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="105"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="99"/>
     </row>
     <row r="36" spans="1:14" ht="15.6">
-      <c r="A36" s="94"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="94"/>
+      <c r="A36" s="89"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="89"/>
       <c r="G36" s="7" t="s">
         <v>33</v>
       </c>
@@ -4901,31 +5868,31 @@
       <c r="L36" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M36" s="105"/>
+      <c r="M36" s="99"/>
     </row>
     <row r="37" spans="1:14" ht="15.6">
-      <c r="A37" s="93" t="s">
-        <v>137</v>
-      </c>
-      <c r="B37" s="100"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="100"/>
-      <c r="I37" s="100"/>
-      <c r="J37" s="100"/>
-      <c r="K37" s="100"/>
-      <c r="L37" s="100"/>
-      <c r="M37" s="101"/>
+      <c r="A37" s="88" t="s">
+        <v>171</v>
+      </c>
+      <c r="B37" s="101"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="101"/>
+      <c r="J37" s="101"/>
+      <c r="K37" s="101"/>
+      <c r="L37" s="101"/>
+      <c r="M37" s="102"/>
     </row>
     <row r="38" spans="1:14" ht="33.6">
       <c r="A38" s="9" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="3" t="s">
@@ -4953,83 +5920,85 @@
         <v>45965</v>
       </c>
       <c r="L38" s="16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M38" s="17"/>
     </row>
     <row r="39" spans="1:14" ht="16.8">
-      <c r="A39" s="102" t="s">
-        <v>139</v>
-      </c>
-      <c r="B39" s="103"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="103"/>
-      <c r="J39" s="103"/>
-      <c r="K39" s="103"/>
-      <c r="L39" s="103"/>
-      <c r="M39" s="104"/>
+      <c r="A39" s="96" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" s="97"/>
+      <c r="C39" s="97"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="97"/>
+      <c r="H39" s="97"/>
+      <c r="I39" s="97"/>
+      <c r="J39" s="97"/>
+      <c r="K39" s="97"/>
+      <c r="L39" s="97"/>
+      <c r="M39" s="98"/>
       <c r="N39" s="19"/>
     </row>
-    <row r="40" spans="1:14" ht="84">
+    <row r="40" spans="1:14" ht="50.4">
       <c r="A40" s="10" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="15"/>
+        <v>177</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="E40" s="15" t="s">
-        <v>49</v>
+        <v>178</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G40" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G40" s="11" t="s">
         <v>41</v>
       </c>
       <c r="H40" s="12">
         <v>45962</v>
       </c>
-      <c r="I40" s="16" t="s">
+      <c r="I40" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="J40" s="16" t="s">
+      <c r="J40" s="11" t="s">
         <v>41</v>
       </c>
       <c r="K40" s="12">
         <v>45965</v>
       </c>
-      <c r="L40" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="M40" s="35"/>
-    </row>
-    <row r="41" spans="1:14" ht="100.8">
+      <c r="L40" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="M40" s="17"/>
+    </row>
+    <row r="41" spans="1:14" ht="84">
       <c r="A41" s="10" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>41</v>
@@ -5037,22 +6006,27 @@
       <c r="H41" s="12">
         <v>45962</v>
       </c>
-      <c r="I41" s="16" t="s">
+      <c r="I41" s="20" t="s">
         <v>185</v>
       </c>
       <c r="J41" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="K41" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="L41" s="16" t="s">
-        <v>184</v>
+      <c r="K41" s="12">
+        <v>45965</v>
+      </c>
+      <c r="L41" s="20" t="s">
+        <v>185</v>
       </c>
       <c r="M41" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="A37:M37"/>
     <mergeCell ref="A39:M39"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="B34:B36"/>
@@ -5061,965 +6035,6 @@
     <mergeCell ref="E34:E36"/>
     <mergeCell ref="F34:F36"/>
     <mergeCell ref="M34:M36"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G34:L34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="A37:M37"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G38 J38 G40:G41 J40:J41" xr:uid="{00000000-0002-0000-0600-000000000000}">
-      <formula1>"Passed,Untested,Failed,Blocked"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:M53"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1"/>
-    <col min="3" max="3" width="31.109375" customWidth="1"/>
-    <col min="4" max="4" width="38.77734375" customWidth="1"/>
-    <col min="5" max="5" width="40.33203125" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A1" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-    </row>
-    <row r="2" spans="1:6" ht="22.8">
-      <c r="A2" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="97" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-    </row>
-    <row r="3" spans="1:6" ht="18">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18">
-      <c r="A4" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="23">
-        <v>9</v>
-      </c>
-      <c r="C4" s="23">
-        <v>0</v>
-      </c>
-      <c r="D4" s="23">
-        <v>0</v>
-      </c>
-      <c r="E4" s="23">
-        <v>0</v>
-      </c>
-      <c r="F4" s="23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="27">
-        <v>4</v>
-      </c>
-      <c r="C5" s="27">
-        <v>0</v>
-      </c>
-      <c r="D5" s="27">
-        <v>0</v>
-      </c>
-      <c r="E5" s="27">
-        <v>0</v>
-      </c>
-      <c r="F5" s="23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="17.399999999999999">
-      <c r="A40" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="94" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="95" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" s="94" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="85"/>
-      <c r="L40" s="85"/>
-      <c r="M40" s="74" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="17.399999999999999">
-      <c r="A41" s="94"/>
-      <c r="B41" s="94"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="94"/>
-      <c r="G41" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="K41" s="85"/>
-      <c r="L41" s="85"/>
-      <c r="M41" s="74"/>
-    </row>
-    <row r="42" spans="1:13" ht="15.6">
-      <c r="A42" s="94"/>
-      <c r="B42" s="94"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="94"/>
-      <c r="G42" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M42" s="74"/>
-    </row>
-    <row r="43" spans="1:13" ht="15.6">
-      <c r="A43" s="93" t="s">
-        <v>145</v>
-      </c>
-      <c r="B43" s="93"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="93"/>
-      <c r="H43" s="93"/>
-      <c r="I43" s="93"/>
-      <c r="J43" s="93"/>
-      <c r="K43" s="93"/>
-      <c r="L43" s="93"/>
-      <c r="M43" s="93"/>
-    </row>
-    <row r="44" spans="1:13" ht="33.6">
-      <c r="A44" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="B44" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F44" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H44" s="12">
-        <v>45962</v>
-      </c>
-      <c r="I44" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="J44" s="11"/>
-      <c r="K44" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="L44" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="M44" s="30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="33.6">
-      <c r="A45" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F45" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H45" s="12">
-        <v>45962</v>
-      </c>
-      <c r="I45" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="J45" s="11"/>
-      <c r="K45" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="L45" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="M45" s="32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="33.6">
-      <c r="A46" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F46" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H46" s="12">
-        <v>45962</v>
-      </c>
-      <c r="I46" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="J46" s="11"/>
-      <c r="K46" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="L46" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="M46" s="32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="33.6">
-      <c r="A47" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="F47" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H47" s="12">
-        <v>45962</v>
-      </c>
-      <c r="I47" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="J47" s="11"/>
-      <c r="K47" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="L47" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="M47" s="32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="33.6">
-      <c r="A48" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="C48" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E48" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="F48" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H48" s="12">
-        <v>45962</v>
-      </c>
-      <c r="I48" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="J48" s="11"/>
-      <c r="K48" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="L48" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="M48" s="32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="16.8">
-      <c r="A49" s="102" t="s">
-        <v>156</v>
-      </c>
-      <c r="B49" s="103"/>
-      <c r="C49" s="103"/>
-      <c r="D49" s="103"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="103"/>
-      <c r="I49" s="103"/>
-      <c r="J49" s="103"/>
-      <c r="K49" s="103"/>
-      <c r="L49" s="103"/>
-      <c r="M49" s="104"/>
-    </row>
-    <row r="50" spans="1:13" ht="171" customHeight="1">
-      <c r="A50" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H50" s="12">
-        <v>45962</v>
-      </c>
-      <c r="I50" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="J50" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K50" s="12">
-        <v>45965</v>
-      </c>
-      <c r="L50" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="M50" s="35"/>
-    </row>
-    <row r="51" spans="1:13" ht="184.8">
-      <c r="A51" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H51" s="12">
-        <v>45962</v>
-      </c>
-      <c r="I51" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="J51" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K51" s="12">
-        <v>45965</v>
-      </c>
-      <c r="L51" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="M51" s="17"/>
-    </row>
-    <row r="52" spans="1:13" ht="184.8">
-      <c r="A52" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H52" s="12">
-        <v>45962</v>
-      </c>
-      <c r="I52" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K52" s="12">
-        <v>45965</v>
-      </c>
-      <c r="L52" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="M52" s="17"/>
-    </row>
-    <row r="53" spans="1:13" ht="168">
-      <c r="A53" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H53" s="12">
-        <v>45962</v>
-      </c>
-      <c r="I53" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="J53" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K53" s="12">
-        <v>45965</v>
-      </c>
-      <c r="L53" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="M53" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A49:M49"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="M40:M42"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G40:L40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="A43:M43"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G44:G48 G50:G53 J44:J48 J50:J53" xr:uid="{00000000-0002-0000-0700-000000000000}">
-      <formula1>"Passed,Untested,Failed,Blocked"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:N41"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" customWidth="1"/>
-    <col min="3" max="3" width="37.44140625" customWidth="1"/>
-    <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1"/>
-    <col min="11" max="11" width="15.21875" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16.8">
-      <c r="A1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.8">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="99" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-    </row>
-    <row r="3" spans="1:6" ht="16.8">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.8">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <f>B4</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.8">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="4">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <f>B5</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="17.399999999999999">
-      <c r="A34" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="94" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="95" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="94" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="74" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="17.399999999999999">
-      <c r="A35" s="94"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="K35" s="67"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="105"/>
-    </row>
-    <row r="36" spans="1:14" ht="15.6">
-      <c r="A36" s="94"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M36" s="105"/>
-    </row>
-    <row r="37" spans="1:14" ht="15.6">
-      <c r="A37" s="93" t="s">
-        <v>171</v>
-      </c>
-      <c r="B37" s="100"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="100"/>
-      <c r="I37" s="100"/>
-      <c r="J37" s="100"/>
-      <c r="K37" s="100"/>
-      <c r="L37" s="100"/>
-      <c r="M37" s="101"/>
-    </row>
-    <row r="38" spans="1:14" ht="33.6">
-      <c r="A38" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H38" s="12">
-        <v>45962</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K38" s="12">
-        <v>45965</v>
-      </c>
-      <c r="L38" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="M38" s="17"/>
-    </row>
-    <row r="39" spans="1:14" ht="16.8">
-      <c r="A39" s="102" t="s">
-        <v>174</v>
-      </c>
-      <c r="B39" s="103"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="103"/>
-      <c r="J39" s="103"/>
-      <c r="K39" s="103"/>
-      <c r="L39" s="103"/>
-      <c r="M39" s="104"/>
-      <c r="N39" s="19"/>
-    </row>
-    <row r="40" spans="1:14" ht="50.4">
-      <c r="A40" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H40" s="12">
-        <v>45962</v>
-      </c>
-      <c r="I40" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K40" s="12">
-        <v>45965</v>
-      </c>
-      <c r="L40" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="M40" s="17"/>
-    </row>
-    <row r="41" spans="1:14" ht="84">
-      <c r="A41" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H41" s="12">
-        <v>45962</v>
-      </c>
-      <c r="I41" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="J41" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K41" s="12">
-        <v>45965</v>
-      </c>
-      <c r="L41" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="M41" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A39:M39"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="M34:M36"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G34:L34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="A37:M37"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G38 J38 G40:G41 J40:J41" xr:uid="{00000000-0002-0000-0800-000000000000}">

--- a/Document/8.2.ProjectTestCaseSprint2.xlsx
+++ b/Document/8.2.ProjectTestCaseSprint2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATN_Document\Document_DaSua\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061E82CF-C5A3-4E5C-95A4-64EAF4C8B668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC51AA9-A1B0-4788-9BBC-2BF803C856E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="858" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="188">
   <si>
     <t>TEST CASE SYSTEM SPRINT 2</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Giỏ hàng</t>
-  </si>
-  <si>
-    <t>Thanh</t>
   </si>
   <si>
     <t>Xem hotel</t>
@@ -1196,6 +1193,27 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1220,26 +1238,23 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1250,22 +1265,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1283,7 +1283,16 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1298,18 +1307,30 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1320,30 +1341,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2181,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C3" s="57"/>
       <c r="D3" s="57"/>
@@ -2218,7 +2215,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.8">
@@ -2226,16 +2223,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="11">
         <v>3</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.8">
@@ -2243,16 +2240,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="49">
         <v>3</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.8">
@@ -2260,16 +2257,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="49">
         <v>10</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.8">
@@ -2277,16 +2274,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="11">
         <v>3</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.8">
@@ -2294,16 +2291,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="11">
         <v>8</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.8">
@@ -2311,16 +2308,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="49">
         <v>9</v>
       </c>
       <c r="E11" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.8">
@@ -2328,16 +2325,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="49">
         <v>3</v>
       </c>
       <c r="E12" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.8">
@@ -2378,7 +2375,7 @@
   </sheetPr>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
@@ -2401,49 +2398,49 @@
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1">
       <c r="A1" s="54" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
+        <v>182</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" ht="22.8">
       <c r="A2" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="1:6" ht="18">
       <c r="A3" s="23"/>
       <c r="B3" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="E3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18">
       <c r="A4" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="23">
         <v>5</v>
@@ -2464,7 +2461,7 @@
     </row>
     <row r="5" spans="1:6" ht="18">
       <c r="A5" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="27">
         <v>5</v>
@@ -2484,313 +2481,308 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="17.399999999999999">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="62" t="s">
+      <c r="D30" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="62" t="s">
+      <c r="E30" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="63" t="s">
+      <c r="F30" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="62" t="s">
+      <c r="G30" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="72" t="s">
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="64" t="s">
+    </row>
+    <row r="31" spans="1:13" ht="17.399999999999999">
+      <c r="A31" s="69"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="64" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="17.399999999999999">
-      <c r="A31" s="62"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="72" t="s">
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72" t="s">
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="72"/>
+    </row>
+    <row r="32" spans="1:13" ht="16.8">
+      <c r="A32" s="69"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="65"/>
-    </row>
-    <row r="32" spans="1:13" ht="16.8">
-      <c r="A32" s="62"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="37" t="s">
+      <c r="H32" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="38" t="s">
+      <c r="I32" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="I32" s="37" t="s">
+      <c r="J32" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="M32" s="72"/>
+    </row>
+    <row r="33" spans="1:14" ht="16.8">
+      <c r="A33" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="J32" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="K32" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="L32" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="M32" s="65"/>
-    </row>
-    <row r="33" spans="1:14" ht="16.8">
-      <c r="A33" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="65"/>
     </row>
     <row r="34" spans="1:14" ht="33.6">
       <c r="A34" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="41" t="s">
         <v>37</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>38</v>
       </c>
       <c r="C34" s="42"/>
       <c r="D34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="34" t="s">
-        <v>40</v>
-      </c>
       <c r="F34" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H34" s="12">
         <v>45962</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K34" s="12">
         <v>45964</v>
       </c>
       <c r="L34" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M34" s="43"/>
     </row>
     <row r="35" spans="1:14" ht="33.6">
       <c r="A35" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="41" t="s">
         <v>43</v>
-      </c>
-      <c r="B35" s="41" t="s">
-        <v>44</v>
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="34" t="s">
-        <v>40</v>
-      </c>
       <c r="F35" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H35" s="12">
         <v>45962</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K35" s="12">
         <v>45964</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M35" s="43"/>
     </row>
     <row r="36" spans="1:14" ht="16.8">
-      <c r="A36" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="61"/>
+      <c r="A36" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="68"/>
       <c r="N36" s="19"/>
     </row>
     <row r="37" spans="1:14" ht="79.05" customHeight="1">
       <c r="A37" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H37" s="12">
         <v>45962</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K37" s="12">
         <v>45964</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M37" s="35"/>
     </row>
     <row r="38" spans="1:14" ht="85.95" customHeight="1">
       <c r="A38" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="D38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>53</v>
-      </c>
       <c r="F38" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H38" s="12">
         <v>45962</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K38" s="12">
         <v>45964</v>
       </c>
       <c r="L38" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M38" s="44"/>
     </row>
     <row r="39" spans="1:14" ht="67.2">
       <c r="A39" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="C39" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>56</v>
-      </c>
       <c r="F39" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H39" s="12">
         <v>45962</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M39" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
     <mergeCell ref="A33:M33"/>
     <mergeCell ref="A36:M36"/>
     <mergeCell ref="A30:A32"/>
@@ -2800,6 +2792,11 @@
     <mergeCell ref="E30:E32"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="M30:M32"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G34:G35 G37:G39 J34:J35 J37:J39" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -2818,7 +2815,7 @@
   </sheetPr>
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="D34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
@@ -2841,49 +2838,49 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.8">
       <c r="A1" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="76" t="s">
-        <v>188</v>
-      </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="78"/>
+        <v>56</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="75"/>
     </row>
     <row r="2" spans="1:6" ht="16.8">
       <c r="A2" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="81"/>
+        <v>15</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="78"/>
     </row>
     <row r="3" spans="1:6" ht="18">
       <c r="A3" s="23"/>
       <c r="B3" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="E3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18">
       <c r="A4" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="23">
         <v>3</v>
@@ -2904,7 +2901,7 @@
     </row>
     <row r="5" spans="1:6" ht="18">
       <c r="A5" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="27">
         <v>3</v>
@@ -2924,238 +2921,233 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="17.399999999999999">
-      <c r="A41" s="62" t="s">
+      <c r="A41" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="62" t="s">
+      <c r="D41" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="62" t="s">
+      <c r="E41" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="63" t="s">
+      <c r="F41" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="62" t="s">
+      <c r="G41" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="72" t="s">
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="72"/>
-      <c r="K41" s="72"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="64" t="s">
+    </row>
+    <row r="42" spans="1:13" ht="17.399999999999999">
+      <c r="A42" s="69"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="64" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="17.399999999999999">
-      <c r="A42" s="62"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="72" t="s">
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72" t="s">
+      <c r="K42" s="64"/>
+      <c r="L42" s="64"/>
+      <c r="M42" s="72"/>
+    </row>
+    <row r="43" spans="1:13" ht="16.8">
+      <c r="A43" s="69"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="K42" s="72"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="65"/>
-    </row>
-    <row r="43" spans="1:13" ht="16.8">
-      <c r="A43" s="62"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="37" t="s">
+      <c r="H43" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="38" t="s">
+      <c r="I43" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="I43" s="37" t="s">
-        <v>35</v>
-      </c>
       <c r="J43" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="K43" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K43" s="37" t="s">
+      <c r="L43" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="L43" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="M43" s="65"/>
+      <c r="M43" s="72"/>
     </row>
     <row r="44" spans="1:13" ht="16.8">
-      <c r="A44" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="58"/>
-      <c r="L44" s="58"/>
-      <c r="M44" s="58"/>
+      <c r="A44" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="65"/>
+      <c r="M44" s="65"/>
     </row>
     <row r="45" spans="1:13" ht="33.6">
       <c r="A45" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="40" t="s">
         <v>59</v>
-      </c>
-      <c r="B45" s="40" t="s">
-        <v>60</v>
       </c>
       <c r="C45" s="40"/>
       <c r="D45" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E45" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F45" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H45" s="12">
         <v>45962</v>
       </c>
       <c r="I45" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J45" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K45" s="12">
         <v>45964</v>
       </c>
       <c r="L45" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M45" s="40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="16.8">
+      <c r="A46" s="79" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="16.8">
-      <c r="A46" s="73" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="74"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="74"/>
-      <c r="I46" s="74"/>
-      <c r="J46" s="74"/>
-      <c r="K46" s="74"/>
-      <c r="L46" s="74"/>
-      <c r="M46" s="75"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="80"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="80"/>
+      <c r="K46" s="80"/>
+      <c r="L46" s="80"/>
+      <c r="M46" s="81"/>
     </row>
     <row r="47" spans="1:13" ht="100.05" customHeight="1">
       <c r="A47" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B47" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="D47" s="15"/>
       <c r="E47" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H47" s="12">
         <v>45962</v>
       </c>
       <c r="I47" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J47" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K47" s="12">
         <v>45964</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M47" s="35"/>
     </row>
     <row r="48" spans="1:13" ht="115.05" customHeight="1">
       <c r="A48" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="D48" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>68</v>
-      </c>
       <c r="F48" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H48" s="12">
         <v>45962</v>
       </c>
       <c r="I48" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J48" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K48" s="12">
         <v>45964</v>
       </c>
       <c r="L48" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M48" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G41:L41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
     <mergeCell ref="A44:M44"/>
     <mergeCell ref="A46:M46"/>
     <mergeCell ref="A41:A43"/>
@@ -3165,6 +3157,11 @@
     <mergeCell ref="E41:E43"/>
     <mergeCell ref="F41:F43"/>
     <mergeCell ref="M41:M43"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G45 J45 G47:G48 J47:J48" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -3183,7 +3180,7 @@
   </sheetPr>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
@@ -3206,49 +3203,49 @@
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
+        <v>56</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" ht="22.8">
       <c r="A2" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
+        <v>15</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="1:6" ht="18">
       <c r="A3" s="23"/>
       <c r="B3" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="E3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18">
       <c r="A4" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="23">
         <v>3</v>
@@ -3269,7 +3266,7 @@
     </row>
     <row r="5" spans="1:6" ht="18">
       <c r="A5" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="27">
         <v>3</v>
@@ -3289,241 +3286,236 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="17.399999999999999">
-      <c r="A40" s="62" t="s">
+      <c r="A40" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="62" t="s">
+      <c r="D40" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="62" t="s">
+      <c r="E40" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="63" t="s">
+      <c r="F40" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="62" t="s">
+      <c r="G40" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="87" t="s">
+      <c r="H40" s="82"/>
+      <c r="I40" s="82"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
+      <c r="M40" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="85" t="s">
+    </row>
+    <row r="41" spans="1:14" ht="17.399999999999999">
+      <c r="A41" s="69"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="82" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="17.399999999999999">
-      <c r="A41" s="62"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="87" t="s">
+      <c r="H41" s="82"/>
+      <c r="I41" s="82"/>
+      <c r="J41" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="87" t="s">
+      <c r="K41" s="82"/>
+      <c r="L41" s="82"/>
+      <c r="M41" s="87"/>
+    </row>
+    <row r="42" spans="1:14" ht="16.8">
+      <c r="A42" s="69"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="K41" s="87"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="86"/>
-    </row>
-    <row r="42" spans="1:14" ht="16.8">
-      <c r="A42" s="62"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="37" t="s">
+      <c r="H42" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="H42" s="38" t="s">
+      <c r="I42" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="I42" s="37" t="s">
-        <v>35</v>
-      </c>
       <c r="J42" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K42" s="37" t="s">
+      <c r="L42" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="L42" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="M42" s="86"/>
+      <c r="M42" s="87"/>
     </row>
     <row r="43" spans="1:14" ht="16.8">
-      <c r="A43" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="58"/>
+      <c r="A43" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="65"/>
+      <c r="M43" s="65"/>
     </row>
     <row r="44" spans="1:14" ht="33.6">
       <c r="A44" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="29" t="s">
-        <v>71</v>
-      </c>
       <c r="C44" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F44" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G44" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H44" s="12">
         <v>45962</v>
       </c>
       <c r="I44" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K44" s="12">
         <v>45964</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M44" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="16.8">
-      <c r="A45" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="83"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="83"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="83"/>
-      <c r="J45" s="83"/>
-      <c r="K45" s="83"/>
-      <c r="L45" s="83"/>
-      <c r="M45" s="83"/>
+      <c r="A45" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="84"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="84"/>
+      <c r="J45" s="84"/>
+      <c r="K45" s="84"/>
+      <c r="L45" s="84"/>
+      <c r="M45" s="84"/>
       <c r="N45" s="19"/>
     </row>
     <row r="46" spans="1:14" ht="94.05" customHeight="1">
       <c r="A46" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B46" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="D46" s="15"/>
       <c r="E46" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H46" s="12">
         <v>45962</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J46" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K46" s="12">
         <v>45964</v>
       </c>
       <c r="L46" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M46" s="35"/>
     </row>
     <row r="47" spans="1:14" ht="93" customHeight="1">
       <c r="A47" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="C47" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="D47" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>77</v>
-      </c>
       <c r="F47" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G47" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H47" s="12">
         <v>45962</v>
       </c>
       <c r="I47" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J47" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K47" s="12">
         <v>45964</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M47" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G40:L40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
     <mergeCell ref="A43:M43"/>
     <mergeCell ref="A45:M45"/>
     <mergeCell ref="A40:A42"/>
@@ -3533,6 +3525,11 @@
     <mergeCell ref="E40:E42"/>
     <mergeCell ref="F40:F42"/>
     <mergeCell ref="M40:M42"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G40:L40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G44 J44 G46:G47 J46:J47" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -3551,7 +3548,7 @@
   </sheetPr>
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
@@ -3574,52 +3571,52 @@
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="104"/>
+        <v>56</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="89"/>
     </row>
     <row r="2" spans="1:7" ht="22.8">
       <c r="A2" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="71"/>
+        <v>15</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="63"/>
     </row>
     <row r="3" spans="1:7" ht="18">
       <c r="A3" s="23"/>
       <c r="B3" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="E3" s="90"/>
+      <c r="F3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18">
       <c r="A4" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="23">
         <v>10</v>
@@ -3627,10 +3624,10 @@
       <c r="C4" s="23">
         <v>0</v>
       </c>
-      <c r="D4" s="93">
+      <c r="D4" s="91">
         <v>0</v>
       </c>
-      <c r="E4" s="93"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="36">
         <v>0</v>
       </c>
@@ -3641,7 +3638,7 @@
     </row>
     <row r="5" spans="1:7" ht="18">
       <c r="A5" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="23">
         <v>5</v>
@@ -3649,10 +3646,10 @@
       <c r="C5" s="23">
         <v>0</v>
       </c>
-      <c r="D5" s="93">
+      <c r="D5" s="91">
         <v>0</v>
       </c>
-      <c r="E5" s="93"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="36">
         <v>0</v>
       </c>
@@ -3662,297 +3659,297 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="17.399999999999999">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="89" t="s">
+      <c r="D31" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="89" t="s">
+      <c r="E31" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="90" t="s">
+      <c r="F31" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="89" t="s">
+      <c r="G31" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="87" t="s">
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="85" t="s">
+    </row>
+    <row r="32" spans="1:13" ht="17.399999999999999">
+      <c r="A32" s="93"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="82" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="17.399999999999999">
-      <c r="A32" s="89"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="87" t="s">
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="H32" s="87"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="87" t="s">
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="95"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.6">
+      <c r="A33" s="93"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K32" s="87"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="91"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.6">
-      <c r="A33" s="89"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="7" t="s">
+      <c r="H33" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="I33" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I33" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="J33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L33" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M33" s="91"/>
+      <c r="M33" s="95"/>
     </row>
     <row r="34" spans="1:13" ht="15.6">
-      <c r="A34" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="88"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="88"/>
-      <c r="L34" s="88"/>
-      <c r="M34" s="88"/>
+      <c r="A34" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="92"/>
+      <c r="M34" s="92"/>
     </row>
     <row r="35" spans="1:13" ht="33.6">
       <c r="A35" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="29" t="s">
-        <v>80</v>
-      </c>
       <c r="C35" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="34" t="s">
-        <v>40</v>
-      </c>
       <c r="F35" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H35" s="12">
         <v>45962</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J35" s="11"/>
       <c r="K35" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L35" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M35" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="33.6">
       <c r="A36" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="33" t="s">
-        <v>82</v>
-      </c>
       <c r="C36" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="31" t="s">
-        <v>40</v>
-      </c>
       <c r="F36" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H36" s="12">
         <v>45962</v>
       </c>
       <c r="I36" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J36" s="11"/>
       <c r="K36" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L36" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M36" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="33.6">
       <c r="A37" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="33" t="s">
-        <v>84</v>
-      </c>
       <c r="C37" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="31" t="s">
-        <v>40</v>
-      </c>
       <c r="F37" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H37" s="12">
         <v>45962</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L37" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M37" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="33.6">
       <c r="A38" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="33" t="s">
-        <v>86</v>
-      </c>
       <c r="C38" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="31" t="s">
-        <v>40</v>
-      </c>
       <c r="F38" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H38" s="12">
         <v>45962</v>
       </c>
       <c r="I38" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L38" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M38" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="33.6">
       <c r="A39" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="33" t="s">
-        <v>88</v>
-      </c>
       <c r="C39" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H39" s="12">
         <v>45962</v>
       </c>
       <c r="I39" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J39" s="11"/>
       <c r="K39" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L39" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M39" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="16.8">
       <c r="A40" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -3969,206 +3966,201 @@
     </row>
     <row r="41" spans="1:13" ht="117.6">
       <c r="A41" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="D41" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>93</v>
-      </c>
       <c r="F41" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H41" s="12">
         <v>45964</v>
       </c>
       <c r="I41" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J41" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K41" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K41" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="L41" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M41" s="17"/>
     </row>
     <row r="42" spans="1:13" ht="134.4">
       <c r="A42" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="D42" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>97</v>
-      </c>
       <c r="F42" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H42" s="12">
         <v>45964</v>
       </c>
       <c r="I42" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J42" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K42" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K42" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="L42" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M42" s="17"/>
     </row>
     <row r="43" spans="1:13" ht="134.4">
       <c r="A43" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="D43" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>101</v>
-      </c>
       <c r="F43" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H43" s="12">
         <v>45964</v>
       </c>
       <c r="I43" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J43" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K43" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K43" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="L43" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M43" s="17"/>
     </row>
     <row r="44" spans="1:13" ht="134.4">
       <c r="A44" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="D44" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>105</v>
-      </c>
       <c r="F44" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H44" s="12">
         <v>45964</v>
       </c>
       <c r="I44" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J44" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K44" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K44" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="L44" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M44" s="17"/>
     </row>
     <row r="45" spans="1:13" ht="151.19999999999999">
       <c r="A45" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="D45" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>109</v>
-      </c>
       <c r="F45" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H45" s="12">
         <v>45964</v>
       </c>
       <c r="I45" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J45" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K45" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K45" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="L45" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M45" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
     <mergeCell ref="G31:L31"/>
     <mergeCell ref="G32:I32"/>
     <mergeCell ref="J32:L32"/>
@@ -4180,6 +4172,11 @@
     <mergeCell ref="E31:E33"/>
     <mergeCell ref="F31:F33"/>
     <mergeCell ref="M31:M33"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G35:G39 G41:G45 J35:J39 J41:J45" xr:uid="{00000000-0002-0000-0400-000000000000}">
@@ -4198,7 +4195,7 @@
   </sheetPr>
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -4221,10 +4218,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -4233,37 +4230,37 @@
     </row>
     <row r="2" spans="1:6" ht="22.8">
       <c r="A2" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="94" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
+        <v>15</v>
+      </c>
+      <c r="B2" s="96" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
     </row>
     <row r="3" spans="1:6" ht="18">
       <c r="A3" s="23"/>
       <c r="B3" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="E3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18">
       <c r="A4" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="23">
         <v>8</v>
@@ -4284,7 +4281,7 @@
     </row>
     <row r="5" spans="1:6" ht="18">
       <c r="A5" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="27">
         <v>4</v>
@@ -4304,127 +4301,127 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="17.399999999999999">
-      <c r="A41" s="89" t="s">
+      <c r="A41" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="89" t="s">
+      <c r="D41" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="89" t="s">
+      <c r="E41" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="90" t="s">
+      <c r="F41" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="89" t="s">
+      <c r="G41" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="87" t="s">
+      <c r="H41" s="82"/>
+      <c r="I41" s="82"/>
+      <c r="J41" s="82"/>
+      <c r="K41" s="82"/>
+      <c r="L41" s="82"/>
+      <c r="M41" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="85" t="s">
+    </row>
+    <row r="42" spans="1:13" ht="17.399999999999999">
+      <c r="A42" s="93"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="82" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="17.399999999999999">
-      <c r="A42" s="89"/>
-      <c r="B42" s="89"/>
-      <c r="C42" s="89"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="87" t="s">
+      <c r="H42" s="82"/>
+      <c r="I42" s="82"/>
+      <c r="J42" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="87" t="s">
+      <c r="K42" s="82"/>
+      <c r="L42" s="82"/>
+      <c r="M42" s="95"/>
+    </row>
+    <row r="43" spans="1:13" ht="15.6">
+      <c r="A43" s="93"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K42" s="87"/>
-      <c r="L42" s="87"/>
-      <c r="M42" s="91"/>
-    </row>
-    <row r="43" spans="1:13" ht="15.6">
-      <c r="A43" s="89"/>
-      <c r="B43" s="89"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="7" t="s">
+      <c r="H43" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="I43" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I43" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="J43" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L43" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M43" s="91"/>
+      <c r="M43" s="95"/>
     </row>
     <row r="44" spans="1:13" ht="15.6">
-      <c r="A44" s="95" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" s="95"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="95"/>
-      <c r="K44" s="95"/>
-      <c r="L44" s="95"/>
-      <c r="M44" s="95"/>
+      <c r="A44" s="97" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="97"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="97"/>
+      <c r="K44" s="97"/>
+      <c r="L44" s="97"/>
+      <c r="M44" s="97"/>
     </row>
     <row r="45" spans="1:13" ht="33.6">
       <c r="A45" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H45" s="12">
         <v>45962</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K45" s="12"/>
       <c r="L45" s="11"/>
@@ -4432,32 +4429,32 @@
     </row>
     <row r="46" spans="1:13" ht="33.6">
       <c r="A46" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>116</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H46" s="12">
         <v>45962</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K46" s="12"/>
       <c r="L46" s="11"/>
@@ -4465,32 +4462,32 @@
     </row>
     <row r="47" spans="1:13" ht="39" customHeight="1">
       <c r="A47" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>118</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H47" s="12">
         <v>45962</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K47" s="12"/>
       <c r="L47" s="11"/>
@@ -4498,217 +4495,212 @@
     </row>
     <row r="48" spans="1:13" ht="33.6">
       <c r="A48" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>121</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H48" s="12">
         <v>45962</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K48" s="12"/>
       <c r="L48" s="11"/>
       <c r="M48" s="17"/>
     </row>
     <row r="49" spans="1:14" ht="16.8">
-      <c r="A49" s="83" t="s">
-        <v>122</v>
-      </c>
-      <c r="B49" s="83"/>
-      <c r="C49" s="83"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="83"/>
-      <c r="I49" s="83"/>
-      <c r="J49" s="83"/>
-      <c r="K49" s="83"/>
-      <c r="L49" s="83"/>
-      <c r="M49" s="83"/>
+      <c r="A49" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="84"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="84"/>
+      <c r="L49" s="84"/>
+      <c r="M49" s="84"/>
       <c r="N49" s="19"/>
     </row>
     <row r="50" spans="1:14" ht="91.95" customHeight="1">
       <c r="A50" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B50" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H50" s="12">
         <v>45962</v>
       </c>
       <c r="I50" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J50" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K50" s="12">
         <v>45965</v>
       </c>
       <c r="L50" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M50" s="35"/>
     </row>
     <row r="51" spans="1:14" ht="139.05000000000001" customHeight="1">
       <c r="A51" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="D51" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>127</v>
-      </c>
       <c r="F51" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H51" s="12">
         <v>45962</v>
       </c>
       <c r="I51" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K51" s="12">
         <v>45965</v>
       </c>
       <c r="L51" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M51" s="17"/>
     </row>
     <row r="52" spans="1:14" ht="103.95" customHeight="1">
       <c r="A52" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="D52" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>131</v>
-      </c>
       <c r="F52" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H52" s="12">
         <v>45962</v>
       </c>
       <c r="I52" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K52" s="12">
         <v>45965</v>
       </c>
       <c r="L52" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M52" s="17"/>
     </row>
     <row r="53" spans="1:14" ht="127.95" customHeight="1">
       <c r="A53" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="C53" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="D53" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>135</v>
-      </c>
       <c r="F53" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H53" s="12">
         <v>45962</v>
       </c>
       <c r="I53" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K53" s="12">
         <v>45965</v>
       </c>
       <c r="L53" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M53" s="17"/>
     </row>
     <row r="54" spans="1:14" ht="111" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G41:L41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="A44:M44"/>
     <mergeCell ref="A49:M49"/>
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="B41:B43"/>
@@ -4717,6 +4709,11 @@
     <mergeCell ref="E41:E43"/>
     <mergeCell ref="F41:F43"/>
     <mergeCell ref="M41:M43"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="A44:M44"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G45:G48 G50:G53 J45:J48 J50:J53" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -4735,7 +4732,7 @@
   </sheetPr>
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
@@ -4757,49 +4754,49 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.8">
       <c r="A1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="105" t="s">
-        <v>188</v>
-      </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="107"/>
+        <v>56</v>
+      </c>
+      <c r="B1" s="98" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
     </row>
     <row r="2" spans="1:6" ht="16.8">
       <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="100" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
+        <v>15</v>
+      </c>
+      <c r="B2" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
     </row>
     <row r="3" spans="1:6" ht="16.8">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.8">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
@@ -4820,7 +4817,7 @@
     </row>
     <row r="5" spans="1:6" ht="16.8">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="4">
         <v>3</v>
@@ -4840,237 +4837,232 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.399999999999999">
-      <c r="A34" s="89" t="s">
+      <c r="A34" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="89" t="s">
+      <c r="D34" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="89" t="s">
+      <c r="E34" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="90" t="s">
+      <c r="F34" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="89" t="s">
+      <c r="G34" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="72" t="s">
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="64" t="s">
+    </row>
+    <row r="35" spans="1:14" ht="17.399999999999999">
+      <c r="A35" s="93"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="64" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="17.399999999999999">
-      <c r="A35" s="89"/>
-      <c r="B35" s="89"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="72" t="s">
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72" t="s">
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="107"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.6">
+      <c r="A36" s="93"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="99"/>
-    </row>
-    <row r="36" spans="1:14" ht="15.6">
-      <c r="A36" s="89"/>
-      <c r="B36" s="89"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="7" t="s">
+      <c r="H36" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="I36" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I36" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="J36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L36" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M36" s="99"/>
+      <c r="M36" s="107"/>
     </row>
     <row r="37" spans="1:14" ht="15.6">
-      <c r="A37" s="88" t="s">
-        <v>137</v>
-      </c>
-      <c r="B37" s="101"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
-      <c r="K37" s="101"/>
-      <c r="L37" s="101"/>
-      <c r="M37" s="102"/>
+      <c r="A37" s="92" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="102"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="102"/>
+      <c r="K37" s="102"/>
+      <c r="L37" s="102"/>
+      <c r="M37" s="103"/>
     </row>
     <row r="38" spans="1:14" ht="33.6">
       <c r="A38" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H38" s="12">
         <v>45962</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K38" s="12">
         <v>45965</v>
       </c>
       <c r="L38" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M38" s="17"/>
     </row>
     <row r="39" spans="1:14" ht="16.8">
-      <c r="A39" s="96" t="s">
-        <v>139</v>
-      </c>
-      <c r="B39" s="97"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="97"/>
-      <c r="J39" s="97"/>
-      <c r="K39" s="97"/>
-      <c r="L39" s="97"/>
-      <c r="M39" s="98"/>
+      <c r="A39" s="104" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="105"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="105"/>
+      <c r="J39" s="105"/>
+      <c r="K39" s="105"/>
+      <c r="L39" s="105"/>
+      <c r="M39" s="106"/>
       <c r="N39" s="19"/>
     </row>
     <row r="40" spans="1:14" ht="84">
       <c r="A40" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B40" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H40" s="12">
         <v>45962</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J40" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K40" s="12">
         <v>45965</v>
       </c>
       <c r="L40" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M40" s="35"/>
     </row>
     <row r="41" spans="1:14" ht="100.8">
       <c r="A41" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="C41" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="D41" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>144</v>
-      </c>
       <c r="F41" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H41" s="12">
         <v>45962</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L41" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M41" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G34:L34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
     <mergeCell ref="A37:M37"/>
     <mergeCell ref="A39:M39"/>
     <mergeCell ref="A34:A36"/>
@@ -5080,6 +5072,11 @@
     <mergeCell ref="E34:E36"/>
     <mergeCell ref="F34:F36"/>
     <mergeCell ref="M34:M36"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G38 J38 G40:G41 J40:J41" xr:uid="{00000000-0002-0000-0600-000000000000}">
@@ -5095,8 +5092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -5118,49 +5115,49 @@
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1">
       <c r="A1" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="104"/>
+        <v>56</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
     </row>
     <row r="2" spans="1:6" ht="22.8">
       <c r="A2" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="94" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
+        <v>15</v>
+      </c>
+      <c r="B2" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
     </row>
     <row r="3" spans="1:6" ht="18">
       <c r="A3" s="23"/>
       <c r="B3" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="E3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18">
       <c r="A4" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="23">
         <v>9</v>
@@ -5180,7 +5177,7 @@
     </row>
     <row r="5" spans="1:6" ht="18">
       <c r="A5" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="27">
         <v>4</v>
@@ -5199,472 +5196,467 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="17.399999999999999">
-      <c r="A40" s="89" t="s">
+      <c r="A40" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="89" t="s">
+      <c r="D40" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="89" t="s">
+      <c r="E40" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="90" t="s">
+      <c r="F40" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="89" t="s">
+      <c r="G40" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="87" t="s">
+      <c r="H40" s="82"/>
+      <c r="I40" s="82"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
+      <c r="M40" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="64" t="s">
+    </row>
+    <row r="41" spans="1:13" ht="17.399999999999999">
+      <c r="A41" s="93"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="82" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="17.399999999999999">
-      <c r="A41" s="89"/>
-      <c r="B41" s="89"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="87" t="s">
+      <c r="H41" s="82"/>
+      <c r="I41" s="82"/>
+      <c r="J41" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="87" t="s">
+      <c r="K41" s="82"/>
+      <c r="L41" s="82"/>
+      <c r="M41" s="71"/>
+    </row>
+    <row r="42" spans="1:13" ht="15.6">
+      <c r="A42" s="93"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K41" s="87"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="64"/>
-    </row>
-    <row r="42" spans="1:13" ht="15.6">
-      <c r="A42" s="89"/>
-      <c r="B42" s="89"/>
-      <c r="C42" s="89"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="7" t="s">
+      <c r="H42" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="I42" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I42" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="J42" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L42" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M42" s="64"/>
+      <c r="M42" s="71"/>
     </row>
     <row r="43" spans="1:13" ht="15.6">
-      <c r="A43" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="B43" s="88"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="88"/>
-      <c r="L43" s="88"/>
-      <c r="M43" s="88"/>
+      <c r="A43" s="92" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="92"/>
+      <c r="I43" s="92"/>
+      <c r="J43" s="92"/>
+      <c r="K43" s="92"/>
+      <c r="L43" s="92"/>
+      <c r="M43" s="92"/>
     </row>
     <row r="44" spans="1:13" ht="33.6">
       <c r="A44" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="B44" s="29" t="s">
-        <v>147</v>
-      </c>
       <c r="C44" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F44" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H44" s="12">
         <v>45962</v>
       </c>
       <c r="I44" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L44" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M44" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="33.6">
       <c r="A45" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="B45" s="29" t="s">
-        <v>149</v>
-      </c>
       <c r="C45" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F45" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H45" s="12">
         <v>45962</v>
       </c>
       <c r="I45" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J45" s="11"/>
       <c r="K45" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L45" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M45" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="33.6">
       <c r="A46" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="B46" s="33" t="s">
-        <v>151</v>
-      </c>
       <c r="C46" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F46" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H46" s="12">
         <v>45962</v>
       </c>
       <c r="I46" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J46" s="11"/>
       <c r="K46" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L46" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M46" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="33.6">
       <c r="A47" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B47" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="C47" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="31" t="s">
-        <v>40</v>
-      </c>
       <c r="F47" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H47" s="12">
         <v>45962</v>
       </c>
       <c r="I47" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J47" s="11"/>
       <c r="K47" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L47" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M47" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="33.6">
       <c r="A48" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="B48" s="33" t="s">
-        <v>155</v>
-      </c>
       <c r="C48" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D48" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="31" t="s">
-        <v>40</v>
-      </c>
       <c r="F48" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H48" s="12">
         <v>45962</v>
       </c>
       <c r="I48" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J48" s="11"/>
       <c r="K48" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L48" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M48" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="16.8">
-      <c r="A49" s="96" t="s">
-        <v>156</v>
-      </c>
-      <c r="B49" s="97"/>
-      <c r="C49" s="97"/>
-      <c r="D49" s="97"/>
-      <c r="E49" s="97"/>
-      <c r="F49" s="97"/>
-      <c r="G49" s="97"/>
-      <c r="H49" s="97"/>
-      <c r="I49" s="97"/>
-      <c r="J49" s="97"/>
-      <c r="K49" s="97"/>
-      <c r="L49" s="97"/>
-      <c r="M49" s="98"/>
+      <c r="A49" s="104" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" s="105"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="105"/>
+      <c r="I49" s="105"/>
+      <c r="J49" s="105"/>
+      <c r="K49" s="105"/>
+      <c r="L49" s="105"/>
+      <c r="M49" s="106"/>
     </row>
     <row r="50" spans="1:13" ht="171" customHeight="1">
       <c r="A50" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B50" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H50" s="12">
         <v>45962</v>
       </c>
       <c r="I50" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J50" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K50" s="12">
         <v>45965</v>
       </c>
       <c r="L50" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M50" s="35"/>
     </row>
     <row r="51" spans="1:13" ht="184.8">
       <c r="A51" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="D51" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>161</v>
-      </c>
       <c r="F51" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H51" s="12">
         <v>45962</v>
       </c>
       <c r="I51" s="16" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="J51" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K51" s="12">
         <v>45965</v>
       </c>
       <c r="L51" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M51" s="17"/>
     </row>
     <row r="52" spans="1:13" ht="184.8">
       <c r="A52" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="D52" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>165</v>
-      </c>
       <c r="F52" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H52" s="12">
         <v>45962</v>
       </c>
       <c r="I52" s="16" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="J52" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K52" s="12">
         <v>45965</v>
       </c>
       <c r="L52" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M52" s="17"/>
     </row>
     <row r="53" spans="1:13" ht="168">
       <c r="A53" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="D53" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>169</v>
-      </c>
       <c r="F53" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H53" s="12">
         <v>45962</v>
       </c>
       <c r="I53" s="16" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K53" s="12">
         <v>45965</v>
       </c>
       <c r="L53" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M53" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G40:L40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
     <mergeCell ref="A43:M43"/>
     <mergeCell ref="A49:M49"/>
     <mergeCell ref="A40:A42"/>
@@ -5674,6 +5666,11 @@
     <mergeCell ref="E40:E42"/>
     <mergeCell ref="F40:F42"/>
     <mergeCell ref="M40:M42"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G40:L40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G44:G48 G50:G53 J44:J48 J50:J53" xr:uid="{00000000-0002-0000-0700-000000000000}">
@@ -5689,7 +5686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -5711,10 +5708,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.8">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -5723,37 +5720,37 @@
     </row>
     <row r="2" spans="1:6" ht="16.8">
       <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="100" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
+        <v>15</v>
+      </c>
+      <c r="B2" s="101" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
     </row>
     <row r="3" spans="1:6" ht="16.8">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.8">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
@@ -5774,7 +5771,7 @@
     </row>
     <row r="5" spans="1:6" ht="16.8">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="4">
         <v>3</v>
@@ -5794,239 +5791,234 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.399999999999999">
-      <c r="A34" s="89" t="s">
+      <c r="A34" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="89" t="s">
+      <c r="D34" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="89" t="s">
+      <c r="E34" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="90" t="s">
+      <c r="F34" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="89" t="s">
+      <c r="G34" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="72" t="s">
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="64" t="s">
+    </row>
+    <row r="35" spans="1:14" ht="17.399999999999999">
+      <c r="A35" s="93"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="64" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="17.399999999999999">
-      <c r="A35" s="89"/>
-      <c r="B35" s="89"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="72" t="s">
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72" t="s">
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="107"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.6">
+      <c r="A36" s="93"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="99"/>
-    </row>
-    <row r="36" spans="1:14" ht="15.6">
-      <c r="A36" s="89"/>
-      <c r="B36" s="89"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="7" t="s">
+      <c r="H36" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="I36" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I36" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="J36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L36" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M36" s="99"/>
+      <c r="M36" s="107"/>
     </row>
     <row r="37" spans="1:14" ht="15.6">
-      <c r="A37" s="88" t="s">
-        <v>171</v>
-      </c>
-      <c r="B37" s="101"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
-      <c r="K37" s="101"/>
-      <c r="L37" s="101"/>
-      <c r="M37" s="102"/>
+      <c r="A37" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" s="102"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="102"/>
+      <c r="K37" s="102"/>
+      <c r="L37" s="102"/>
+      <c r="M37" s="103"/>
     </row>
     <row r="38" spans="1:14" ht="33.6">
       <c r="A38" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>173</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H38" s="12">
         <v>45962</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K38" s="12">
         <v>45965</v>
       </c>
       <c r="L38" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M38" s="17"/>
     </row>
     <row r="39" spans="1:14" ht="16.8">
-      <c r="A39" s="96" t="s">
-        <v>174</v>
-      </c>
-      <c r="B39" s="97"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="97"/>
-      <c r="J39" s="97"/>
-      <c r="K39" s="97"/>
-      <c r="L39" s="97"/>
-      <c r="M39" s="98"/>
+      <c r="A39" s="104" t="s">
+        <v>173</v>
+      </c>
+      <c r="B39" s="105"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="105"/>
+      <c r="J39" s="105"/>
+      <c r="K39" s="105"/>
+      <c r="L39" s="105"/>
+      <c r="M39" s="106"/>
       <c r="N39" s="19"/>
     </row>
     <row r="40" spans="1:14" ht="50.4">
       <c r="A40" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="D40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>178</v>
-      </c>
       <c r="F40" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H40" s="12">
         <v>45962</v>
       </c>
       <c r="I40" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K40" s="12">
         <v>45965</v>
       </c>
       <c r="L40" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M40" s="17"/>
     </row>
     <row r="41" spans="1:14" ht="84">
       <c r="A41" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B41" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="C41" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="D41" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>182</v>
-      </c>
       <c r="F41" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H41" s="12">
         <v>45962</v>
       </c>
       <c r="I41" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K41" s="12">
         <v>45965</v>
       </c>
       <c r="L41" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M41" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G34:L34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="A37:M37"/>
     <mergeCell ref="A39:M39"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="B34:B36"/>
@@ -6035,6 +6027,11 @@
     <mergeCell ref="E34:E36"/>
     <mergeCell ref="F34:F36"/>
     <mergeCell ref="M34:M36"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="A37:M37"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G38 J38 G40:G41 J40:J41" xr:uid="{00000000-0002-0000-0800-000000000000}">
